--- a/Code/Results/Cases/Case_2_241/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_241/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9858833874311881</v>
+        <v>1.02293332269107</v>
       </c>
       <c r="D2">
-        <v>1.006889920126223</v>
+        <v>1.02674372820799</v>
       </c>
       <c r="E2">
-        <v>0.9989615899356313</v>
+        <v>1.047394025025249</v>
       </c>
       <c r="F2">
-        <v>1.000669964605586</v>
+        <v>1.051408384591935</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040013003439567</v>
+        <v>1.028621202615219</v>
       </c>
       <c r="J2">
-        <v>1.008494681001461</v>
+        <v>1.028116376318999</v>
       </c>
       <c r="K2">
-        <v>1.018254094758789</v>
+        <v>1.029565482555791</v>
       </c>
       <c r="L2">
-        <v>1.010435410441834</v>
+        <v>1.050156785927615</v>
       </c>
       <c r="M2">
-        <v>1.012119973641679</v>
+        <v>1.054159969073384</v>
       </c>
       <c r="N2">
-        <v>1.00676611455657</v>
+        <v>1.013411189061657</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9918058957787319</v>
+        <v>1.024105999484649</v>
       </c>
       <c r="D3">
-        <v>1.011154827952017</v>
+        <v>1.027585047746423</v>
       </c>
       <c r="E3">
-        <v>1.005312695253067</v>
+        <v>1.048776641737936</v>
       </c>
       <c r="F3">
-        <v>1.007530318045706</v>
+        <v>1.052896492310152</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041675544605913</v>
+        <v>1.028841044442913</v>
       </c>
       <c r="J3">
-        <v>1.012522460511351</v>
+        <v>1.028926157244195</v>
       </c>
       <c r="K3">
-        <v>1.021646942807216</v>
+        <v>1.03021428950954</v>
       </c>
       <c r="L3">
-        <v>1.01587804748472</v>
+        <v>1.05134975834112</v>
       </c>
       <c r="M3">
-        <v>1.018067745286717</v>
+        <v>1.055458980717611</v>
       </c>
       <c r="N3">
-        <v>1.00810953090777</v>
+        <v>1.013679957185488</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.995532189395077</v>
+        <v>1.02486359861419</v>
       </c>
       <c r="D4">
-        <v>1.013838248944186</v>
+        <v>1.028128031750946</v>
       </c>
       <c r="E4">
-        <v>1.009320369299169</v>
+        <v>1.049671326840903</v>
       </c>
       <c r="F4">
-        <v>1.011857671465334</v>
+        <v>1.053859333570421</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04270446354471</v>
+        <v>1.028980883488129</v>
       </c>
       <c r="J4">
-        <v>1.015050876843558</v>
+        <v>1.029448458789549</v>
       </c>
       <c r="K4">
-        <v>1.023772478887497</v>
+        <v>1.03063206822088</v>
       </c>
       <c r="L4">
-        <v>1.019307592266644</v>
+        <v>1.052121202791185</v>
       </c>
       <c r="M4">
-        <v>1.021815060750076</v>
+        <v>1.056298957288539</v>
       </c>
       <c r="N4">
-        <v>1.008952748786025</v>
+        <v>1.013853259973024</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9970745338702932</v>
+        <v>1.025181808379336</v>
       </c>
       <c r="D5">
-        <v>1.014948851246745</v>
+        <v>1.028355966516706</v>
       </c>
       <c r="E5">
-        <v>1.010982053374887</v>
+        <v>1.050047466104768</v>
       </c>
       <c r="F5">
-        <v>1.013651511966876</v>
+        <v>1.054264101218934</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043126158129536</v>
+        <v>1.029039094298536</v>
       </c>
       <c r="J5">
-        <v>1.016095976078804</v>
+        <v>1.029667633518022</v>
       </c>
       <c r="K5">
-        <v>1.024649981227869</v>
+        <v>1.030807214288098</v>
       </c>
       <c r="L5">
-        <v>1.0207283948848</v>
+        <v>1.052445404812768</v>
       </c>
       <c r="M5">
-        <v>1.023367380330842</v>
+        <v>1.056651950700688</v>
       </c>
       <c r="N5">
-        <v>1.009301255737981</v>
+        <v>1.013925971346456</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.997332114523755</v>
+        <v>1.025235220568586</v>
       </c>
       <c r="D6">
-        <v>1.015134320385492</v>
+        <v>1.028394218105998</v>
       </c>
       <c r="E6">
-        <v>1.011259735231517</v>
+        <v>1.050110622463105</v>
       </c>
       <c r="F6">
-        <v>1.013951255579935</v>
+        <v>1.054332062984061</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043196335327856</v>
+        <v>1.029048834289796</v>
       </c>
       <c r="J6">
-        <v>1.016270428057918</v>
+        <v>1.029704410458766</v>
       </c>
       <c r="K6">
-        <v>1.024796393305275</v>
+        <v>1.030836593487766</v>
       </c>
       <c r="L6">
-        <v>1.020965754133641</v>
+        <v>1.052499833226954</v>
       </c>
       <c r="M6">
-        <v>1.023626703049607</v>
+        <v>1.0567112121776</v>
       </c>
       <c r="N6">
-        <v>1.009359427956106</v>
+        <v>1.013938171409898</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9955528918280734</v>
+        <v>1.024867851664886</v>
       </c>
       <c r="D7">
-        <v>1.013853156708152</v>
+        <v>1.028131078744508</v>
       </c>
       <c r="E7">
-        <v>1.009342662140878</v>
+        <v>1.049676352773366</v>
       </c>
       <c r="F7">
-        <v>1.011881738826699</v>
+        <v>1.053864742132482</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042710140481644</v>
+        <v>1.028981663572859</v>
       </c>
       <c r="J7">
-        <v>1.015064910640096</v>
+        <v>1.02945138898614</v>
       </c>
       <c r="K7">
-        <v>1.023784266443521</v>
+        <v>1.030634410448003</v>
       </c>
       <c r="L7">
-        <v>1.019326658138855</v>
+        <v>1.052125535234749</v>
       </c>
       <c r="M7">
-        <v>1.021835891978765</v>
+        <v>1.056303674520504</v>
       </c>
       <c r="N7">
-        <v>1.008957428730305</v>
+        <v>1.013854232115594</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9879076051379853</v>
+        <v>1.023329884618626</v>
       </c>
       <c r="D8">
-        <v>1.008347523715171</v>
+        <v>1.027028347747758</v>
       </c>
       <c r="E8">
-        <v>1.001129864423679</v>
+        <v>1.047861281115638</v>
       </c>
       <c r="F8">
-        <v>1.003012453263929</v>
+        <v>1.051911313509083</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040584790816621</v>
+        <v>1.028695999026311</v>
       </c>
       <c r="J8">
-        <v>1.009872493229268</v>
+        <v>1.028390394553529</v>
       </c>
       <c r="K8">
-        <v>1.019415597357173</v>
+        <v>1.029785173446405</v>
       </c>
       <c r="L8">
-        <v>1.012294552698685</v>
+        <v>1.050560059922188</v>
       </c>
       <c r="M8">
-        <v>1.014151772995629</v>
+        <v>1.054599096696645</v>
       </c>
       <c r="N8">
-        <v>1.007225685844349</v>
+        <v>1.013502146720088</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9735662378649127</v>
+        <v>1.020610470499326</v>
       </c>
       <c r="D9">
-        <v>0.9980251974286838</v>
+        <v>1.025074385140119</v>
       </c>
       <c r="E9">
-        <v>0.9858156082160233</v>
+        <v>1.044663009973872</v>
       </c>
       <c r="F9">
-        <v>0.9864601820937765</v>
+        <v>1.04846843139572</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036463386750771</v>
+        <v>1.028174127105039</v>
       </c>
       <c r="J9">
-        <v>1.000088259151437</v>
+        <v>1.0265078421839</v>
       </c>
       <c r="K9">
-        <v>1.011150395888657</v>
+        <v>1.028273020500442</v>
       </c>
       <c r="L9">
-        <v>0.9991430872768597</v>
+        <v>1.047797584477989</v>
       </c>
       <c r="M9">
-        <v>0.9997768208468103</v>
+        <v>1.051590864901751</v>
       </c>
       <c r="N9">
-        <v>1.003961902256403</v>
+        <v>1.012877047694932</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9633314141768365</v>
+        <v>1.018791090049523</v>
       </c>
       <c r="D10">
-        <v>0.9906698688275598</v>
+        <v>1.023764413206515</v>
       </c>
       <c r="E10">
-        <v>0.9749442907679846</v>
+        <v>1.042530645334649</v>
       </c>
       <c r="F10">
-        <v>0.9746998138404115</v>
+        <v>1.046172427952731</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033435913629845</v>
+        <v>1.027813759249521</v>
       </c>
       <c r="J10">
-        <v>0.9930793949476934</v>
+        <v>1.025244000893299</v>
       </c>
       <c r="K10">
-        <v>1.005209650125714</v>
+        <v>1.027254305364646</v>
       </c>
       <c r="L10">
-        <v>0.9897811656755312</v>
+        <v>1.04595307181217</v>
       </c>
       <c r="M10">
-        <v>0.9895414066454207</v>
+        <v>1.04958207105437</v>
       </c>
       <c r="N10">
-        <v>1.001623857476453</v>
+        <v>1.012457137034687</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9587169441547002</v>
+        <v>1.018001711976763</v>
       </c>
       <c r="D11">
-        <v>0.9873581979615378</v>
+        <v>1.023195427062574</v>
       </c>
       <c r="E11">
-        <v>0.9700554442437678</v>
+        <v>1.041607205342582</v>
       </c>
       <c r="F11">
-        <v>0.9694085345508883</v>
+        <v>1.045177991737064</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032051743479296</v>
+        <v>1.02765475727549</v>
       </c>
       <c r="J11">
-        <v>0.9899140363948581</v>
+        <v>1.024694630871763</v>
       </c>
       <c r="K11">
-        <v>1.002522523992601</v>
+        <v>1.026810657552251</v>
       </c>
       <c r="L11">
-        <v>0.9855650623282866</v>
+        <v>1.045153645768094</v>
       </c>
       <c r="M11">
-        <v>0.9849313775752615</v>
+        <v>1.048711401125997</v>
       </c>
       <c r="N11">
-        <v>1.000568015157393</v>
+        <v>1.012274549880541</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.956973269901351</v>
+        <v>1.017708261770759</v>
       </c>
       <c r="D12">
-        <v>0.9861076714610735</v>
+        <v>1.022983814451011</v>
       </c>
       <c r="E12">
-        <v>0.9682098748068143</v>
+        <v>1.041264176633615</v>
       </c>
       <c r="F12">
-        <v>0.9674106302778198</v>
+        <v>1.044808570476918</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031525935103337</v>
+        <v>1.027595251575528</v>
       </c>
       <c r="J12">
-        <v>0.988717218608568</v>
+        <v>1.024490249921284</v>
       </c>
       <c r="K12">
-        <v>1.001505955738927</v>
+        <v>1.026645484299389</v>
       </c>
       <c r="L12">
-        <v>0.9839725632608104</v>
+        <v>1.044856587561958</v>
       </c>
       <c r="M12">
-        <v>0.9831900074039441</v>
+        <v>1.048387863105283</v>
       </c>
       <c r="N12">
-        <v>1.00016882079334</v>
+        <v>1.012206613555048</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9573486739415017</v>
+        <v>1.017771218755331</v>
       </c>
       <c r="D13">
-        <v>0.9863768616755432</v>
+        <v>1.02302921812728</v>
       </c>
       <c r="E13">
-        <v>0.9686071376901142</v>
+        <v>1.041337758533698</v>
       </c>
       <c r="F13">
-        <v>0.9678407025999282</v>
+        <v>1.044887814643798</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031639262085784</v>
+        <v>1.027608035909091</v>
       </c>
       <c r="J13">
-        <v>0.9889749184344123</v>
+        <v>1.024534104866177</v>
       </c>
       <c r="K13">
-        <v>1.001724868876977</v>
+        <v>1.026680931864942</v>
       </c>
       <c r="L13">
-        <v>0.9843153923509367</v>
+        <v>1.044920312869221</v>
       </c>
       <c r="M13">
-        <v>0.9835648885322097</v>
+        <v>1.048457269181277</v>
       </c>
       <c r="N13">
-        <v>1.000254774716775</v>
+        <v>1.012221191357342</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9585734300524084</v>
+        <v>1.017977460208448</v>
       </c>
       <c r="D14">
-        <v>0.9872552542108196</v>
+        <v>1.023177940529335</v>
       </c>
       <c r="E14">
-        <v>0.9699035080737982</v>
+        <v>1.04157885096074</v>
       </c>
       <c r="F14">
-        <v>0.969244065965926</v>
+        <v>1.045147456177603</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03200852205102</v>
+        <v>1.02764984760264</v>
       </c>
       <c r="J14">
-        <v>0.9898155457537954</v>
+        <v>1.024677743228811</v>
       </c>
       <c r="K14">
-        <v>1.002438877990825</v>
+        <v>1.026797012095308</v>
       </c>
       <c r="L14">
-        <v>0.9854339782035593</v>
+        <v>1.045129093232763</v>
       </c>
       <c r="M14">
-        <v>0.9847880409116745</v>
+        <v>1.048684660102507</v>
       </c>
       <c r="N14">
-        <v>1.000535163536304</v>
+        <v>1.012268936599304</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9593240431436901</v>
+        <v>1.018104500460798</v>
       </c>
       <c r="D15">
-        <v>0.9877937106125019</v>
+        <v>1.02326953804145</v>
       </c>
       <c r="E15">
-        <v>0.9706982424643451</v>
+        <v>1.041727392895119</v>
       </c>
       <c r="F15">
-        <v>0.970104336847654</v>
+        <v>1.045307423981248</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032234468479814</v>
+        <v>1.027675550145868</v>
       </c>
       <c r="J15">
-        <v>0.9903306465643283</v>
+        <v>1.024766201033931</v>
       </c>
       <c r="K15">
-        <v>1.002876319304774</v>
+        <v>1.026868482199895</v>
       </c>
       <c r="L15">
-        <v>0.9861196052386104</v>
+        <v>1.045257714224955</v>
       </c>
       <c r="M15">
-        <v>0.9855377509073602</v>
+        <v>1.048824745456939</v>
       </c>
       <c r="N15">
-        <v>1.00070697655172</v>
+        <v>1.012298338716129</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9636336290587906</v>
+        <v>1.018843445003604</v>
       </c>
       <c r="D16">
-        <v>0.9908868682971952</v>
+        <v>1.02380213774553</v>
       </c>
       <c r="E16">
-        <v>0.975264727542152</v>
+        <v>1.042591928206425</v>
       </c>
       <c r="F16">
-        <v>0.9750465717827523</v>
+        <v>1.046238419633622</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0335261783027</v>
+        <v>1.0278242492713</v>
       </c>
       <c r="J16">
-        <v>0.9932865993665909</v>
+        <v>1.025280415953034</v>
       </c>
       <c r="K16">
-        <v>1.005385467901788</v>
+        <v>1.02728369522218</v>
       </c>
       <c r="L16">
-        <v>0.9900573836656137</v>
+        <v>1.046006111103548</v>
       </c>
       <c r="M16">
-        <v>0.989843421626239</v>
+        <v>1.049639836246331</v>
       </c>
       <c r="N16">
-        <v>1.001692975020164</v>
+        <v>1.012469238607592</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9662865176893238</v>
+        <v>1.019306541425591</v>
       </c>
       <c r="D17">
-        <v>0.9927922570975432</v>
+        <v>1.024135751340795</v>
       </c>
       <c r="E17">
-        <v>0.9780789827902913</v>
+        <v>1.04313419474542</v>
       </c>
       <c r="F17">
-        <v>0.978091694916933</v>
+        <v>1.046822337328495</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034316377157739</v>
+        <v>1.027916731372271</v>
       </c>
       <c r="J17">
-        <v>0.9951048766709513</v>
+        <v>1.025602400686275</v>
       </c>
       <c r="K17">
-        <v>1.00692785554413</v>
+        <v>1.027543467000066</v>
       </c>
       <c r="L17">
-        <v>0.9924826029082895</v>
+        <v>1.04647535934997</v>
       </c>
       <c r="M17">
-        <v>0.9924950789271939</v>
+        <v>1.050150890428715</v>
       </c>
       <c r="N17">
-        <v>1.002299509839637</v>
+        <v>1.012576234818937</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9678164335930458</v>
+        <v>1.019576506073797</v>
       </c>
       <c r="D18">
-        <v>0.9938915077967536</v>
+        <v>1.024330172826834</v>
       </c>
       <c r="E18">
-        <v>0.9797031520263026</v>
+        <v>1.043450479183671</v>
       </c>
       <c r="F18">
-        <v>0.9798488569187331</v>
+        <v>1.047162902746759</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034770267015808</v>
+        <v>1.027970389027276</v>
       </c>
       <c r="J18">
-        <v>0.9961529649087911</v>
+        <v>1.025790004689417</v>
       </c>
       <c r="K18">
-        <v>1.007816521456373</v>
+        <v>1.027694742759831</v>
       </c>
       <c r="L18">
-        <v>0.9938816808324588</v>
+        <v>1.0467489928386</v>
       </c>
       <c r="M18">
-        <v>0.9940247337434015</v>
+        <v>1.05044889811016</v>
       </c>
       <c r="N18">
-        <v>1.002649133710531</v>
+        <v>1.012638570320924</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9683351952991611</v>
+        <v>1.019668531423645</v>
       </c>
       <c r="D19">
-        <v>0.9942643058891648</v>
+        <v>1.02439643679176</v>
       </c>
       <c r="E19">
-        <v>0.9802540784925661</v>
+        <v>1.043558322384466</v>
       </c>
       <c r="F19">
-        <v>0.9804448539864427</v>
+        <v>1.047279022868382</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034923859964346</v>
+        <v>1.02798863647564</v>
       </c>
       <c r="J19">
-        <v>0.9965082605194553</v>
+        <v>1.025853938228675</v>
       </c>
       <c r="K19">
-        <v>1.008117705384575</v>
+        <v>1.027746282419273</v>
       </c>
       <c r="L19">
-        <v>0.994356158156343</v>
+        <v>1.046842282870489</v>
       </c>
       <c r="M19">
-        <v>0.9945434853456646</v>
+        <v>1.050550497338915</v>
       </c>
       <c r="N19">
-        <v>1.002767654922317</v>
+        <v>1.012659812656559</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9660037099067331</v>
+        <v>1.019256871275835</v>
       </c>
       <c r="D20">
-        <v>0.9925890911121188</v>
+        <v>1.024099975321516</v>
       </c>
       <c r="E20">
-        <v>0.9777788494659012</v>
+        <v>1.043076015798347</v>
       </c>
       <c r="F20">
-        <v>0.9777669658102119</v>
+        <v>1.046759690999401</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034232326932234</v>
+        <v>1.027906838462252</v>
       </c>
       <c r="J20">
-        <v>0.9949110938596227</v>
+        <v>1.025567875914424</v>
       </c>
       <c r="K20">
-        <v>1.006763516275221</v>
+        <v>1.027515621271149</v>
       </c>
       <c r="L20">
-        <v>0.9922240184224341</v>
+        <v>1.046425020840372</v>
       </c>
       <c r="M20">
-        <v>0.9922123563073442</v>
+        <v>1.050096067626286</v>
       </c>
       <c r="N20">
-        <v>1.002234867733218</v>
+        <v>1.012564762753836</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9582136074391645</v>
+        <v>1.017916733895694</v>
       </c>
       <c r="D21">
-        <v>0.986997165145272</v>
+        <v>1.023134152838604</v>
       </c>
       <c r="E21">
-        <v>0.9695225977196147</v>
+        <v>1.041507855898271</v>
       </c>
       <c r="F21">
-        <v>0.9688317295894613</v>
+        <v>1.045070999459516</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031900111896755</v>
+        <v>1.027637547397492</v>
       </c>
       <c r="J21">
-        <v>0.989568595931641</v>
+        <v>1.024635454175259</v>
       </c>
       <c r="K21">
-        <v>1.002229139802974</v>
+        <v>1.026762839937158</v>
       </c>
       <c r="L21">
-        <v>0.985105330457576</v>
+        <v>1.045067615852692</v>
       </c>
       <c r="M21">
-        <v>0.9844286729545689</v>
+        <v>1.048617702839328</v>
       </c>
       <c r="N21">
-        <v>1.000452793572307</v>
+        <v>1.012254880004688</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9531428106081017</v>
+        <v>1.017072745757513</v>
       </c>
       <c r="D22">
-        <v>0.983362333227593</v>
+        <v>1.022525363195278</v>
       </c>
       <c r="E22">
-        <v>0.9641587324146716</v>
+        <v>1.040521761793005</v>
       </c>
       <c r="F22">
-        <v>0.9630243166714612</v>
+        <v>1.044008998342289</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030365878477166</v>
+        <v>1.027465656846115</v>
       </c>
       <c r="J22">
-        <v>0.986086847475249</v>
+        <v>1.024047348408056</v>
       </c>
       <c r="K22">
-        <v>0.9992707511817182</v>
+        <v>1.026287321487087</v>
       </c>
       <c r="L22">
-        <v>0.9804752937527078</v>
+        <v>1.044213489296377</v>
       </c>
       <c r="M22">
-        <v>0.9793656650697522</v>
+        <v>1.047687427502906</v>
       </c>
       <c r="N22">
-        <v>0.9992915120614176</v>
+        <v>1.012059376830869</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.955848121978264</v>
+        <v>1.017520292832154</v>
       </c>
       <c r="D23">
-        <v>0.9853010038439454</v>
+        <v>1.022848240450188</v>
       </c>
       <c r="E23">
-        <v>0.9670194647707192</v>
+        <v>1.041044522959676</v>
       </c>
       <c r="F23">
-        <v>0.9661218434695177</v>
+        <v>1.044572011148755</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031185878529752</v>
+        <v>1.027557023691446</v>
       </c>
       <c r="J23">
-        <v>0.9879447506839379</v>
+        <v>1.024359290996432</v>
       </c>
       <c r="K23">
-        <v>1.000849673735585</v>
+        <v>1.026539613267675</v>
       </c>
       <c r="L23">
-        <v>0.9829451356753435</v>
+        <v>1.044666343207098</v>
       </c>
       <c r="M23">
-        <v>0.9820665116951105</v>
+        <v>1.048180658569627</v>
       </c>
       <c r="N23">
-        <v>0.9999111729463609</v>
+        <v>1.012163080273146</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9661315523921276</v>
+        <v>1.019279315546958</v>
       </c>
       <c r="D24">
-        <v>0.9926809304602271</v>
+        <v>1.024116141488991</v>
       </c>
       <c r="E24">
-        <v>0.9779145202012353</v>
+        <v>1.043102304392276</v>
       </c>
       <c r="F24">
-        <v>0.9779137554602469</v>
+        <v>1.04678799825245</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034270327255421</v>
+        <v>1.027911309524903</v>
       </c>
       <c r="J24">
-        <v>0.9949986944362154</v>
+        <v>1.02558347680375</v>
       </c>
       <c r="K24">
-        <v>1.006837807967124</v>
+        <v>1.027528204313596</v>
       </c>
       <c r="L24">
-        <v>0.9923409094031652</v>
+        <v>1.046447766865409</v>
       </c>
       <c r="M24">
-        <v>0.9923401588949514</v>
+        <v>1.050120839942668</v>
       </c>
       <c r="N24">
-        <v>1.002264089531469</v>
+        <v>1.012569946713579</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9773855201916702</v>
+        <v>1.021314626231961</v>
       </c>
       <c r="D25">
-        <v>1.000772806342549</v>
+        <v>1.025580818630742</v>
       </c>
       <c r="E25">
-        <v>0.9898837766357566</v>
+        <v>1.045489852816928</v>
       </c>
       <c r="F25">
-        <v>0.9908589096516059</v>
+        <v>1.049358610013046</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037576066852869</v>
+        <v>1.028311237048313</v>
       </c>
       <c r="J25">
-        <v>1.002698678235352</v>
+        <v>1.026996071625081</v>
       </c>
       <c r="K25">
-        <v>1.013359137322106</v>
+        <v>1.028665814074539</v>
       </c>
       <c r="L25">
-        <v>1.002641190481715</v>
+        <v>1.048512237822902</v>
       </c>
       <c r="M25">
-        <v>1.003600806324893</v>
+        <v>1.052369129352266</v>
       </c>
       <c r="N25">
-        <v>1.004832710713867</v>
+        <v>1.013039208562512</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_241/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_241/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02293332269107</v>
+        <v>0.9858833874311872</v>
       </c>
       <c r="D2">
-        <v>1.02674372820799</v>
+        <v>1.006889920126222</v>
       </c>
       <c r="E2">
-        <v>1.047394025025249</v>
+        <v>0.998961589935631</v>
       </c>
       <c r="F2">
-        <v>1.051408384591935</v>
+        <v>1.000669964605585</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028621202615219</v>
+        <v>1.040013003439566</v>
       </c>
       <c r="J2">
-        <v>1.028116376318999</v>
+        <v>1.00849468100146</v>
       </c>
       <c r="K2">
-        <v>1.029565482555791</v>
+        <v>1.018254094758788</v>
       </c>
       <c r="L2">
-        <v>1.050156785927615</v>
+        <v>1.010435410441833</v>
       </c>
       <c r="M2">
-        <v>1.054159969073384</v>
+        <v>1.012119973641679</v>
       </c>
       <c r="N2">
-        <v>1.013411189061657</v>
+        <v>1.00676611455657</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024105999484649</v>
+        <v>0.9918058957787319</v>
       </c>
       <c r="D3">
-        <v>1.027585047746423</v>
+        <v>1.011154827952018</v>
       </c>
       <c r="E3">
-        <v>1.048776641737936</v>
+        <v>1.005312695253068</v>
       </c>
       <c r="F3">
-        <v>1.052896492310152</v>
+        <v>1.007530318045707</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028841044442913</v>
+        <v>1.041675544605913</v>
       </c>
       <c r="J3">
-        <v>1.028926157244195</v>
+        <v>1.012522460511351</v>
       </c>
       <c r="K3">
-        <v>1.03021428950954</v>
+        <v>1.021646942807216</v>
       </c>
       <c r="L3">
-        <v>1.05134975834112</v>
+        <v>1.01587804748472</v>
       </c>
       <c r="M3">
-        <v>1.055458980717611</v>
+        <v>1.018067745286717</v>
       </c>
       <c r="N3">
-        <v>1.013679957185488</v>
+        <v>1.00810953090777</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02486359861419</v>
+        <v>0.9955321893950783</v>
       </c>
       <c r="D4">
-        <v>1.028128031750946</v>
+        <v>1.013838248944187</v>
       </c>
       <c r="E4">
-        <v>1.049671326840903</v>
+        <v>1.00932036929917</v>
       </c>
       <c r="F4">
-        <v>1.053859333570421</v>
+        <v>1.011857671465335</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028980883488129</v>
+        <v>1.04270446354471</v>
       </c>
       <c r="J4">
-        <v>1.029448458789549</v>
+        <v>1.015050876843559</v>
       </c>
       <c r="K4">
-        <v>1.03063206822088</v>
+        <v>1.023772478887498</v>
       </c>
       <c r="L4">
-        <v>1.052121202791185</v>
+        <v>1.019307592266644</v>
       </c>
       <c r="M4">
-        <v>1.056298957288539</v>
+        <v>1.021815060750077</v>
       </c>
       <c r="N4">
-        <v>1.013853259973024</v>
+        <v>1.008952748786026</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025181808379336</v>
+        <v>0.9970745338702938</v>
       </c>
       <c r="D5">
-        <v>1.028355966516706</v>
+        <v>1.014948851246746</v>
       </c>
       <c r="E5">
-        <v>1.050047466104768</v>
+        <v>1.010982053374887</v>
       </c>
       <c r="F5">
-        <v>1.054264101218934</v>
+        <v>1.013651511966875</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029039094298536</v>
+        <v>1.043126158129537</v>
       </c>
       <c r="J5">
-        <v>1.029667633518022</v>
+        <v>1.016095976078805</v>
       </c>
       <c r="K5">
-        <v>1.030807214288098</v>
+        <v>1.02464998122787</v>
       </c>
       <c r="L5">
-        <v>1.052445404812768</v>
+        <v>1.0207283948848</v>
       </c>
       <c r="M5">
-        <v>1.056651950700688</v>
+        <v>1.023367380330842</v>
       </c>
       <c r="N5">
-        <v>1.013925971346456</v>
+        <v>1.009301255737981</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025235220568586</v>
+        <v>0.9973321145237557</v>
       </c>
       <c r="D6">
-        <v>1.028394218105998</v>
+        <v>1.015134320385493</v>
       </c>
       <c r="E6">
-        <v>1.050110622463105</v>
+        <v>1.011259735231517</v>
       </c>
       <c r="F6">
-        <v>1.054332062984061</v>
+        <v>1.013951255579935</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029048834289796</v>
+        <v>1.043196335327857</v>
       </c>
       <c r="J6">
-        <v>1.029704410458766</v>
+        <v>1.016270428057918</v>
       </c>
       <c r="K6">
-        <v>1.030836593487766</v>
+        <v>1.024796393305275</v>
       </c>
       <c r="L6">
-        <v>1.052499833226954</v>
+        <v>1.020965754133641</v>
       </c>
       <c r="M6">
-        <v>1.0567112121776</v>
+        <v>1.023626703049607</v>
       </c>
       <c r="N6">
-        <v>1.013938171409898</v>
+        <v>1.009359427956106</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024867851664886</v>
+        <v>0.995552891828074</v>
       </c>
       <c r="D7">
-        <v>1.028131078744508</v>
+        <v>1.013853156708152</v>
       </c>
       <c r="E7">
-        <v>1.049676352773366</v>
+        <v>1.009342662140879</v>
       </c>
       <c r="F7">
-        <v>1.053864742132482</v>
+        <v>1.0118817388267</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028981663572859</v>
+        <v>1.042710140481644</v>
       </c>
       <c r="J7">
-        <v>1.02945138898614</v>
+        <v>1.015064910640096</v>
       </c>
       <c r="K7">
-        <v>1.030634410448003</v>
+        <v>1.023784266443522</v>
       </c>
       <c r="L7">
-        <v>1.052125535234749</v>
+        <v>1.019326658138856</v>
       </c>
       <c r="M7">
-        <v>1.056303674520504</v>
+        <v>1.021835891978766</v>
       </c>
       <c r="N7">
-        <v>1.013854232115594</v>
+        <v>1.008957428730305</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023329884618626</v>
+        <v>0.9879076051379854</v>
       </c>
       <c r="D8">
-        <v>1.027028347747758</v>
+        <v>1.008347523715171</v>
       </c>
       <c r="E8">
-        <v>1.047861281115638</v>
+        <v>1.001129864423679</v>
       </c>
       <c r="F8">
-        <v>1.051911313509083</v>
+        <v>1.00301245326393</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028695999026311</v>
+        <v>1.040584790816621</v>
       </c>
       <c r="J8">
-        <v>1.028390394553529</v>
+        <v>1.009872493229268</v>
       </c>
       <c r="K8">
-        <v>1.029785173446405</v>
+        <v>1.019415597357173</v>
       </c>
       <c r="L8">
-        <v>1.050560059922188</v>
+        <v>1.012294552698686</v>
       </c>
       <c r="M8">
-        <v>1.054599096696645</v>
+        <v>1.014151772995629</v>
       </c>
       <c r="N8">
-        <v>1.013502146720088</v>
+        <v>1.007225685844349</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020610470499326</v>
+        <v>0.9735662378649134</v>
       </c>
       <c r="D9">
-        <v>1.025074385140119</v>
+        <v>0.9980251974286848</v>
       </c>
       <c r="E9">
-        <v>1.044663009973872</v>
+        <v>0.985815608216024</v>
       </c>
       <c r="F9">
-        <v>1.04846843139572</v>
+        <v>0.9864601820937773</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028174127105039</v>
+        <v>1.036463386750771</v>
       </c>
       <c r="J9">
-        <v>1.0265078421839</v>
+        <v>1.000088259151438</v>
       </c>
       <c r="K9">
-        <v>1.028273020500442</v>
+        <v>1.011150395888658</v>
       </c>
       <c r="L9">
-        <v>1.047797584477989</v>
+        <v>0.9991430872768604</v>
       </c>
       <c r="M9">
-        <v>1.051590864901751</v>
+        <v>0.999776820846811</v>
       </c>
       <c r="N9">
-        <v>1.012877047694932</v>
+        <v>1.003961902256403</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018791090049523</v>
+        <v>0.9633314141768364</v>
       </c>
       <c r="D10">
-        <v>1.023764413206515</v>
+        <v>0.9906698688275595</v>
       </c>
       <c r="E10">
-        <v>1.042530645334649</v>
+        <v>0.9749442907679849</v>
       </c>
       <c r="F10">
-        <v>1.046172427952731</v>
+        <v>0.9746998138404118</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027813759249521</v>
+        <v>1.033435913629845</v>
       </c>
       <c r="J10">
-        <v>1.025244000893299</v>
+        <v>0.9930793949476933</v>
       </c>
       <c r="K10">
-        <v>1.027254305364646</v>
+        <v>1.005209650125713</v>
       </c>
       <c r="L10">
-        <v>1.04595307181217</v>
+        <v>0.9897811656755315</v>
       </c>
       <c r="M10">
-        <v>1.04958207105437</v>
+        <v>0.9895414066454211</v>
       </c>
       <c r="N10">
-        <v>1.012457137034687</v>
+        <v>1.001623857476453</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018001711976763</v>
+        <v>0.9587169441547009</v>
       </c>
       <c r="D11">
-        <v>1.023195427062574</v>
+        <v>0.9873581979615386</v>
       </c>
       <c r="E11">
-        <v>1.041607205342582</v>
+        <v>0.970055444243769</v>
       </c>
       <c r="F11">
-        <v>1.045177991737064</v>
+        <v>0.9694085345508893</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02765475727549</v>
+        <v>1.032051743479296</v>
       </c>
       <c r="J11">
-        <v>1.024694630871763</v>
+        <v>0.9899140363948589</v>
       </c>
       <c r="K11">
-        <v>1.026810657552251</v>
+        <v>1.002522523992602</v>
       </c>
       <c r="L11">
-        <v>1.045153645768094</v>
+        <v>0.9855650623282877</v>
       </c>
       <c r="M11">
-        <v>1.048711401125997</v>
+        <v>0.9849313775752625</v>
       </c>
       <c r="N11">
-        <v>1.012274549880541</v>
+        <v>1.000568015157393</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017708261770759</v>
+        <v>0.9569732699013509</v>
       </c>
       <c r="D12">
-        <v>1.022983814451011</v>
+        <v>0.9861076714610736</v>
       </c>
       <c r="E12">
-        <v>1.041264176633615</v>
+        <v>0.9682098748068146</v>
       </c>
       <c r="F12">
-        <v>1.044808570476918</v>
+        <v>0.96741063027782</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027595251575528</v>
+        <v>1.031525935103337</v>
       </c>
       <c r="J12">
-        <v>1.024490249921284</v>
+        <v>0.9887172186085681</v>
       </c>
       <c r="K12">
-        <v>1.026645484299389</v>
+        <v>1.001505955738927</v>
       </c>
       <c r="L12">
-        <v>1.044856587561958</v>
+        <v>0.9839725632608105</v>
       </c>
       <c r="M12">
-        <v>1.048387863105283</v>
+        <v>0.9831900074039442</v>
       </c>
       <c r="N12">
-        <v>1.012206613555048</v>
+        <v>1.00016882079334</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017771218755331</v>
+        <v>0.9573486739415009</v>
       </c>
       <c r="D13">
-        <v>1.02302921812728</v>
+        <v>0.9863768616755426</v>
       </c>
       <c r="E13">
-        <v>1.041337758533698</v>
+        <v>0.9686071376901144</v>
       </c>
       <c r="F13">
-        <v>1.044887814643798</v>
+        <v>0.9678407025999284</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027608035909091</v>
+        <v>1.031639262085784</v>
       </c>
       <c r="J13">
-        <v>1.024534104866177</v>
+        <v>0.9889749184344115</v>
       </c>
       <c r="K13">
-        <v>1.026680931864942</v>
+        <v>1.001724868876977</v>
       </c>
       <c r="L13">
-        <v>1.044920312869221</v>
+        <v>0.9843153923509369</v>
       </c>
       <c r="M13">
-        <v>1.048457269181277</v>
+        <v>0.9835648885322096</v>
       </c>
       <c r="N13">
-        <v>1.012221191357342</v>
+        <v>1.000254774716774</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017977460208448</v>
+        <v>0.9585734300524095</v>
       </c>
       <c r="D14">
-        <v>1.023177940529335</v>
+        <v>0.9872552542108208</v>
       </c>
       <c r="E14">
-        <v>1.04157885096074</v>
+        <v>0.9699035080737998</v>
       </c>
       <c r="F14">
-        <v>1.045147456177603</v>
+        <v>0.9692440659659277</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02764984760264</v>
+        <v>1.032008522051021</v>
       </c>
       <c r="J14">
-        <v>1.024677743228811</v>
+        <v>0.9898155457537966</v>
       </c>
       <c r="K14">
-        <v>1.026797012095308</v>
+        <v>1.002438877990826</v>
       </c>
       <c r="L14">
-        <v>1.045129093232763</v>
+        <v>0.9854339782035606</v>
       </c>
       <c r="M14">
-        <v>1.048684660102507</v>
+        <v>0.984788040911676</v>
       </c>
       <c r="N14">
-        <v>1.012268936599304</v>
+        <v>1.000535163536305</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018104500460798</v>
+        <v>0.9593240431436896</v>
       </c>
       <c r="D15">
-        <v>1.02326953804145</v>
+        <v>0.987793710612501</v>
       </c>
       <c r="E15">
-        <v>1.041727392895119</v>
+        <v>0.9706982424643446</v>
       </c>
       <c r="F15">
-        <v>1.045307423981248</v>
+        <v>0.9701043368476531</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027675550145868</v>
+        <v>1.032234468479813</v>
       </c>
       <c r="J15">
-        <v>1.024766201033931</v>
+        <v>0.9903306465643276</v>
       </c>
       <c r="K15">
-        <v>1.026868482199895</v>
+        <v>1.002876319304773</v>
       </c>
       <c r="L15">
-        <v>1.045257714224955</v>
+        <v>0.9861196052386098</v>
       </c>
       <c r="M15">
-        <v>1.048824745456939</v>
+        <v>0.9855377509073594</v>
       </c>
       <c r="N15">
-        <v>1.012298338716129</v>
+        <v>1.00070697655172</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018843445003604</v>
+        <v>0.9636336290587904</v>
       </c>
       <c r="D16">
-        <v>1.02380213774553</v>
+        <v>0.990886868297195</v>
       </c>
       <c r="E16">
-        <v>1.042591928206425</v>
+        <v>0.9752647275421519</v>
       </c>
       <c r="F16">
-        <v>1.046238419633622</v>
+        <v>0.9750465717827522</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0278242492713</v>
+        <v>1.0335261783027</v>
       </c>
       <c r="J16">
-        <v>1.025280415953034</v>
+        <v>0.9932865993665906</v>
       </c>
       <c r="K16">
-        <v>1.02728369522218</v>
+        <v>1.005385467901788</v>
       </c>
       <c r="L16">
-        <v>1.046006111103548</v>
+        <v>0.9900573836656136</v>
       </c>
       <c r="M16">
-        <v>1.049639836246331</v>
+        <v>0.9898434216262388</v>
       </c>
       <c r="N16">
-        <v>1.012469238607592</v>
+        <v>1.001692975020164</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019306541425591</v>
+        <v>0.9662865176893246</v>
       </c>
       <c r="D17">
-        <v>1.024135751340795</v>
+        <v>0.9927922570975442</v>
       </c>
       <c r="E17">
-        <v>1.04313419474542</v>
+        <v>0.9780789827902915</v>
       </c>
       <c r="F17">
-        <v>1.046822337328495</v>
+        <v>0.9780916949169333</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027916731372271</v>
+        <v>1.034316377157739</v>
       </c>
       <c r="J17">
-        <v>1.025602400686275</v>
+        <v>0.995104876670952</v>
       </c>
       <c r="K17">
-        <v>1.027543467000066</v>
+        <v>1.006927855544131</v>
       </c>
       <c r="L17">
-        <v>1.04647535934997</v>
+        <v>0.9924826029082897</v>
       </c>
       <c r="M17">
-        <v>1.050150890428715</v>
+        <v>0.9924950789271941</v>
       </c>
       <c r="N17">
-        <v>1.012576234818937</v>
+        <v>1.002299509839638</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019576506073797</v>
+        <v>0.9678164335930466</v>
       </c>
       <c r="D18">
-        <v>1.024330172826834</v>
+        <v>0.9938915077967546</v>
       </c>
       <c r="E18">
-        <v>1.043450479183671</v>
+        <v>0.9797031520263029</v>
       </c>
       <c r="F18">
-        <v>1.047162902746759</v>
+        <v>0.9798488569187338</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027970389027276</v>
+        <v>1.034770267015808</v>
       </c>
       <c r="J18">
-        <v>1.025790004689417</v>
+        <v>0.996152964908792</v>
       </c>
       <c r="K18">
-        <v>1.027694742759831</v>
+        <v>1.007816521456373</v>
       </c>
       <c r="L18">
-        <v>1.0467489928386</v>
+        <v>0.993881680832459</v>
       </c>
       <c r="M18">
-        <v>1.05044889811016</v>
+        <v>0.9940247337434018</v>
       </c>
       <c r="N18">
-        <v>1.012638570320924</v>
+        <v>1.002649133710531</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019668531423645</v>
+        <v>0.9683351952991619</v>
       </c>
       <c r="D19">
-        <v>1.02439643679176</v>
+        <v>0.9942643058891656</v>
       </c>
       <c r="E19">
-        <v>1.043558322384466</v>
+        <v>0.9802540784925674</v>
       </c>
       <c r="F19">
-        <v>1.047279022868382</v>
+        <v>0.9804448539864439</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02798863647564</v>
+        <v>1.034923859964347</v>
       </c>
       <c r="J19">
-        <v>1.025853938228675</v>
+        <v>0.996508260519456</v>
       </c>
       <c r="K19">
-        <v>1.027746282419273</v>
+        <v>1.008117705384576</v>
       </c>
       <c r="L19">
-        <v>1.046842282870489</v>
+        <v>0.9943561581563441</v>
       </c>
       <c r="M19">
-        <v>1.050550497338915</v>
+        <v>0.9945434853456658</v>
       </c>
       <c r="N19">
-        <v>1.012659812656559</v>
+        <v>1.002767654922318</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019256871275835</v>
+        <v>0.9660037099067331</v>
       </c>
       <c r="D20">
-        <v>1.024099975321516</v>
+        <v>0.9925890911121188</v>
       </c>
       <c r="E20">
-        <v>1.043076015798347</v>
+        <v>0.9777788494659017</v>
       </c>
       <c r="F20">
-        <v>1.046759690999401</v>
+        <v>0.9777669658102123</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027906838462252</v>
+        <v>1.034232326932234</v>
       </c>
       <c r="J20">
-        <v>1.025567875914424</v>
+        <v>0.9949110938596227</v>
       </c>
       <c r="K20">
-        <v>1.027515621271149</v>
+        <v>1.006763516275221</v>
       </c>
       <c r="L20">
-        <v>1.046425020840372</v>
+        <v>0.9922240184224345</v>
       </c>
       <c r="M20">
-        <v>1.050096067626286</v>
+        <v>0.9922123563073444</v>
       </c>
       <c r="N20">
-        <v>1.012564762753836</v>
+        <v>1.002234867733218</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017916733895694</v>
+        <v>0.9582136074391636</v>
       </c>
       <c r="D21">
-        <v>1.023134152838604</v>
+        <v>0.9869971651452711</v>
       </c>
       <c r="E21">
-        <v>1.041507855898271</v>
+        <v>0.9695225977196142</v>
       </c>
       <c r="F21">
-        <v>1.045070999459516</v>
+        <v>0.9688317295894605</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027637547397492</v>
+        <v>1.031900111896755</v>
       </c>
       <c r="J21">
-        <v>1.024635454175259</v>
+        <v>0.9895685959316404</v>
       </c>
       <c r="K21">
-        <v>1.026762839937158</v>
+        <v>1.002229139802974</v>
       </c>
       <c r="L21">
-        <v>1.045067615852692</v>
+        <v>0.9851053304575756</v>
       </c>
       <c r="M21">
-        <v>1.048617702839328</v>
+        <v>0.9844286729545684</v>
       </c>
       <c r="N21">
-        <v>1.012254880004688</v>
+        <v>1.000452793572307</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017072745757513</v>
+        <v>0.9531428106081007</v>
       </c>
       <c r="D22">
-        <v>1.022525363195278</v>
+        <v>0.983362333227592</v>
       </c>
       <c r="E22">
-        <v>1.040521761793005</v>
+        <v>0.9641587324146712</v>
       </c>
       <c r="F22">
-        <v>1.044008998342289</v>
+        <v>0.9630243166714606</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027465656846115</v>
+        <v>1.030365878477165</v>
       </c>
       <c r="J22">
-        <v>1.024047348408056</v>
+        <v>0.9860868474752481</v>
       </c>
       <c r="K22">
-        <v>1.026287321487087</v>
+        <v>0.9992707511817172</v>
       </c>
       <c r="L22">
-        <v>1.044213489296377</v>
+        <v>0.9804752937527074</v>
       </c>
       <c r="M22">
-        <v>1.047687427502906</v>
+        <v>0.9793656650697516</v>
       </c>
       <c r="N22">
-        <v>1.012059376830869</v>
+        <v>0.9992915120614174</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017520292832154</v>
+        <v>0.9558481219782631</v>
       </c>
       <c r="D23">
-        <v>1.022848240450188</v>
+        <v>0.9853010038439446</v>
       </c>
       <c r="E23">
-        <v>1.041044522959676</v>
+        <v>0.9670194647707185</v>
       </c>
       <c r="F23">
-        <v>1.044572011148755</v>
+        <v>0.9661218434695172</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027557023691446</v>
+        <v>1.031185878529751</v>
       </c>
       <c r="J23">
-        <v>1.024359290996432</v>
+        <v>0.9879447506839374</v>
       </c>
       <c r="K23">
-        <v>1.026539613267675</v>
+        <v>1.000849673735585</v>
       </c>
       <c r="L23">
-        <v>1.044666343207098</v>
+        <v>0.9829451356753433</v>
       </c>
       <c r="M23">
-        <v>1.048180658569627</v>
+        <v>0.9820665116951101</v>
       </c>
       <c r="N23">
-        <v>1.012163080273146</v>
+        <v>0.9999111729463608</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019279315546958</v>
+        <v>0.9661315523921282</v>
       </c>
       <c r="D24">
-        <v>1.024116141488991</v>
+        <v>0.9926809304602279</v>
       </c>
       <c r="E24">
-        <v>1.043102304392276</v>
+        <v>0.9779145202012356</v>
       </c>
       <c r="F24">
-        <v>1.04678799825245</v>
+        <v>0.9779137554602472</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027911309524903</v>
+        <v>1.034270327255422</v>
       </c>
       <c r="J24">
-        <v>1.02558347680375</v>
+        <v>0.994998694436216</v>
       </c>
       <c r="K24">
-        <v>1.027528204313596</v>
+        <v>1.006837807967125</v>
       </c>
       <c r="L24">
-        <v>1.046447766865409</v>
+        <v>0.9923409094031655</v>
       </c>
       <c r="M24">
-        <v>1.050120839942668</v>
+        <v>0.9923401588949516</v>
       </c>
       <c r="N24">
-        <v>1.012569946713579</v>
+        <v>1.002264089531469</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021314626231961</v>
+        <v>0.9773855201916702</v>
       </c>
       <c r="D25">
-        <v>1.025580818630742</v>
+        <v>1.000772806342549</v>
       </c>
       <c r="E25">
-        <v>1.045489852816928</v>
+        <v>0.9898837766357568</v>
       </c>
       <c r="F25">
-        <v>1.049358610013046</v>
+        <v>0.9908589096516065</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028311237048313</v>
+        <v>1.037576066852869</v>
       </c>
       <c r="J25">
-        <v>1.026996071625081</v>
+        <v>1.002698678235352</v>
       </c>
       <c r="K25">
-        <v>1.028665814074539</v>
+        <v>1.013359137322107</v>
       </c>
       <c r="L25">
-        <v>1.048512237822902</v>
+        <v>1.002641190481715</v>
       </c>
       <c r="M25">
-        <v>1.052369129352266</v>
+        <v>1.003600806324894</v>
       </c>
       <c r="N25">
-        <v>1.013039208562512</v>
+        <v>1.004832710713867</v>
       </c>
     </row>
   </sheetData>
